--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.Query.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.Query.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,13 +85,19 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Query / Search action happens successfully.
-- Given a RESTful Query 
-- And there is no known Patient subject. 
-  - The requestor logging the event would potentially not know a patient identity
+- Given a RESTful Query is requested
+- And the request does not have a Patient subject indicated
+  - The requestor logging the event would potentially not know they have requested Patient specific data
   - The data objects may not be patient specific kind of objects
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Query to retrieve Resource(s) 
-- Then the search request is recorded  
+  - when the request is Patient specific then [PatientQuery](StructureDefinition-IHE.BasicAudit.PatientQuery.html) is used
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+  - Note success may result in zero or more results. The number of results and the content of the results are not recorded.
+- And the results are not Patient specific
+  - when the results are Patient specific then [PatientQuery](StructureDefinition-IHE.BasicAudit.PatientQuery.html) are used
+- Then the AuditEvent recorded will conform
   - The raw search request is base64 encoded and placed in the .entity[query].query element. The base64 encoding of the raw search request enables preserving exactly what was requested, including possibly malicious patterns. This enables detection of malicious or malformed requests.
   - The cleaned search may be recorded (not base64) in the .entity[query].description. The cleaned search request would have removed parameters that were not understood/supported. The cleaned search request in the .description element enables more efficient processing.
 Note: the pattern defined in DICOM and IHE have the client is identified as the Source Role ID, and the server is identified as the Destination Role ID. This represents the query parameters are flowing from the client to the server. This may not be so obvious, as the data actually flows the opposite direction. This pattern is established and thus followed here.</t>
@@ -280,10 +286,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -302,7 +304,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -699,6 +701,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2218,16 +2224,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2236,28 +2242,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2481,16 +2487,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2515,28 +2521,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2586,13 +2592,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2632,25 +2638,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2701,19 +2707,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2736,7 +2742,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2747,28 +2753,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2818,19 +2824,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2853,7 +2859,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2864,7 +2870,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2876,16 +2882,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2911,43 +2917,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2970,18 +2976,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2993,16 +2999,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3052,25 +3058,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3087,11 +3093,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3110,16 +3116,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3169,7 +3175,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3187,7 +3193,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3204,11 +3210,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3227,16 +3233,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3286,7 +3292,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3298,13 +3304,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3321,11 +3327,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3338,25 +3344,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3405,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3417,13 +3423,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3448,32 +3454,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3483,73 +3489,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3557,7 +3563,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3565,7 +3571,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3577,20 +3583,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3615,29 +3621,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3649,19 +3655,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3672,10 +3678,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3685,39 +3691,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3732,14 +3738,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3768,19 +3774,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3791,10 +3797,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3804,39 +3810,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3851,14 +3857,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3887,19 +3893,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3910,10 +3916,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
@@ -3923,39 +3929,39 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -3970,14 +3976,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4006,19 +4012,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4040,29 +4046,29 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4072,70 +4078,70 @@
         <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4146,7 +4152,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4157,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4169,16 +4175,16 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4228,42 +4234,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4271,34 +4277,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4347,42 +4353,42 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4393,28 +4399,28 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4440,55 +4446,55 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4499,7 +4505,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4510,19 +4516,19 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>213</v>
@@ -4579,19 +4585,19 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4603,7 +4609,7 @@
         <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4634,7 +4640,7 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>218</v>
@@ -4672,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X21" t="s" s="2">
         <v>222</v>
@@ -4708,7 +4714,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>224</v>
@@ -4810,13 +4816,13 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4825,7 +4831,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>239</v>
@@ -4859,7 +4865,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4871,7 +4877,7 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>246</v>
@@ -4934,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -4967,7 +4973,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4986,16 +4992,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5057,7 +5063,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -5097,13 +5103,13 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>255</v>
@@ -5112,10 +5118,10 @@
         <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5176,13 +5182,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -5210,7 +5216,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -5255,7 +5261,7 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>261</v>
@@ -5285,13 +5291,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>263</v>
@@ -5410,7 +5416,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5444,16 +5450,16 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>280</v>
@@ -5523,13 +5529,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>285</v>
@@ -5563,7 +5569,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5575,7 +5581,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>291</v>
@@ -5640,13 +5646,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5680,7 +5686,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5692,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>297</v>
@@ -5757,13 +5763,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5794,19 +5800,19 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>303</v>
@@ -5873,16 +5879,16 @@
         <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5916,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5991,13 +5997,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>314</v>
@@ -6043,7 +6049,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>320</v>
@@ -6116,7 +6122,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6150,7 +6156,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6162,7 +6168,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>328</v>
@@ -6197,7 +6203,7 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>331</v>
@@ -6227,13 +6233,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6267,7 +6273,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6342,13 +6348,13 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6382,7 +6388,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6394,7 +6400,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>246</v>
@@ -6457,7 +6463,7 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -6490,7 +6496,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6509,16 +6515,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6580,7 +6586,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6620,13 +6626,13 @@
         <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>255</v>
@@ -6635,10 +6641,10 @@
         <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6699,13 +6705,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6733,7 +6739,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6751,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>343</v>
@@ -6812,13 +6818,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6852,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6864,7 +6870,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>351</v>
@@ -6899,7 +6905,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>354</v>
@@ -6929,13 +6935,13 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -7016,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>222</v>
@@ -7052,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7085,10 +7091,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7164,7 +7170,7 @@
         <v>230</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7173,7 +7179,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>239</v>
@@ -7207,7 +7213,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7219,7 +7225,7 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>246</v>
@@ -7282,7 +7288,7 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7321,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7334,16 +7340,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7405,7 +7411,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7445,13 +7451,13 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>255</v>
@@ -7460,10 +7466,10 @@
         <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7524,13 +7530,13 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -7555,10 +7561,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7603,7 +7609,7 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>261</v>
@@ -7633,13 +7639,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>263</v>
@@ -7758,7 +7764,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7789,19 +7795,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>280</v>
@@ -7871,13 +7877,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>285</v>
@@ -7911,7 +7917,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7923,7 +7929,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>291</v>
@@ -7988,13 +7994,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8028,7 +8034,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8040,7 +8046,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>297</v>
@@ -8105,13 +8111,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8142,19 +8148,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>303</v>
@@ -8221,16 +8227,16 @@
         <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8264,7 +8270,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8339,13 +8345,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>314</v>
@@ -8391,7 +8397,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>320</v>
@@ -8464,7 +8470,7 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8516,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>328</v>
@@ -8545,7 +8551,7 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>331</v>
@@ -8575,13 +8581,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8612,10 +8618,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8690,13 +8696,13 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8730,7 +8736,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8742,7 +8748,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>246</v>
@@ -8805,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8844,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8857,16 +8863,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8928,7 +8934,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8968,13 +8974,13 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>255</v>
@@ -8983,10 +8989,10 @@
         <v>256</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -9047,13 +9053,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -9081,7 +9087,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9093,7 +9099,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>343</v>
@@ -9160,13 +9166,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9200,7 +9206,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9212,7 +9218,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>351</v>
@@ -9247,7 +9253,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>354</v>
@@ -9277,13 +9283,13 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9364,7 +9370,7 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>222</v>
@@ -9400,7 +9406,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9433,10 +9439,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9512,7 +9518,7 @@
         <v>230</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9521,7 +9527,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>239</v>
@@ -9555,7 +9561,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9567,7 +9573,7 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>246</v>
@@ -9630,7 +9636,7 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -9663,7 +9669,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9682,16 +9688,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9753,7 +9759,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9793,13 +9799,13 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>255</v>
@@ -9808,10 +9814,10 @@
         <v>256</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9872,13 +9878,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9903,10 +9909,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9951,7 +9957,7 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>261</v>
@@ -9981,13 +9987,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>263</v>
@@ -10106,7 +10112,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10137,19 +10143,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>280</v>
@@ -10219,13 +10225,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>285</v>
@@ -10259,7 +10265,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10271,7 +10277,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>291</v>
@@ -10336,13 +10342,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10376,7 +10382,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10388,7 +10394,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>297</v>
@@ -10453,13 +10459,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10490,19 +10496,19 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>303</v>
@@ -10569,16 +10575,16 @@
         <v>302</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10612,7 +10618,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10687,13 +10693,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>314</v>
@@ -10739,7 +10745,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>320</v>
@@ -10812,7 +10818,7 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10858,7 +10864,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>328</v>
@@ -10893,7 +10899,7 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>331</v>
@@ -10923,13 +10929,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10960,10 +10966,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -11038,13 +11044,13 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11078,7 +11084,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11090,7 +11096,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>246</v>
@@ -11153,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -11186,7 +11192,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11205,16 +11211,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11276,7 +11282,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11316,13 +11322,13 @@
         <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>255</v>
@@ -11331,10 +11337,10 @@
         <v>256</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11395,13 +11401,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -11429,7 +11435,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11441,7 +11447,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>343</v>
@@ -11508,13 +11514,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11548,7 +11554,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11560,7 +11566,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>351</v>
@@ -11595,7 +11601,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>354</v>
@@ -11625,13 +11631,13 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11712,7 +11718,7 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>222</v>
@@ -11748,7 +11754,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11784,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11860,7 +11866,7 @@
         <v>230</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11869,7 +11875,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>239</v>
@@ -11903,7 +11909,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11915,7 +11921,7 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>246</v>
@@ -11978,7 +11984,7 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
@@ -12011,7 +12017,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12030,16 +12036,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12101,7 +12107,7 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
@@ -12141,13 +12147,13 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>255</v>
@@ -12156,10 +12162,10 @@
         <v>256</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -12220,13 +12226,13 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -12251,10 +12257,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -12299,7 +12305,7 @@
         <v>78</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>261</v>
@@ -12329,13 +12335,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>263</v>
@@ -12372,7 +12378,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12454,7 +12460,7 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12485,19 +12491,19 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>280</v>
@@ -12567,13 +12573,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>285</v>
@@ -12607,7 +12613,7 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
@@ -12619,7 +12625,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>291</v>
@@ -12684,13 +12690,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12724,11 +12730,11 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12736,7 +12742,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>297</v>
@@ -12801,13 +12807,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12838,19 +12844,19 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>303</v>
@@ -12917,16 +12923,16 @@
         <v>302</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12960,7 +12966,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -13035,13 +13041,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>314</v>
@@ -13087,7 +13093,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>320</v>
@@ -13160,7 +13166,7 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13206,7 +13212,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>328</v>
@@ -13241,7 +13247,7 @@
         <v>78</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
         <v>331</v>
@@ -13271,13 +13277,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13386,13 +13392,13 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13426,7 +13432,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -13438,7 +13444,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>246</v>
@@ -13501,7 +13507,7 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
@@ -13534,7 +13540,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13553,16 +13559,16 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13624,7 +13630,7 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13664,13 +13670,13 @@
         <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>255</v>
@@ -13679,10 +13685,10 @@
         <v>256</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>78</v>
@@ -13743,13 +13749,13 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
@@ -13777,7 +13783,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13789,7 +13795,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>343</v>
@@ -13856,13 +13862,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13896,7 +13902,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13908,7 +13914,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>351</v>
@@ -13943,7 +13949,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>354</v>
@@ -13973,13 +13979,13 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14016,7 +14022,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14060,7 +14066,7 @@
         <v>78</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>222</v>
@@ -14096,7 +14102,7 @@
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14127,13 +14133,13 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14206,16 +14212,16 @@
         <v>370</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14249,7 +14255,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -14261,7 +14267,7 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>246</v>
@@ -14324,7 +14330,7 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
@@ -14357,7 +14363,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14376,16 +14382,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14447,7 +14453,7 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14487,13 +14493,13 @@
         <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>255</v>
@@ -14502,10 +14508,10 @@
         <v>256</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>78</v>
@@ -14566,13 +14572,13 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>78</v>
@@ -14600,7 +14606,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>78</v>
@@ -14612,7 +14618,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>382</v>
@@ -14677,13 +14683,13 @@
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14714,19 +14720,19 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>280</v>
@@ -14791,16 +14797,16 @@
         <v>387</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14846,7 +14852,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>394</v>
@@ -14881,7 +14887,7 @@
         <v>78</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>397</v>
@@ -14917,7 +14923,7 @@
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -14948,7 +14954,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>80</v>
@@ -15019,7 +15025,7 @@
         <v>78</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>401</v>
@@ -15046,7 +15052,7 @@
         <v>409</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>410</v>
@@ -15068,7 +15074,7 @@
         <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>78</v>
@@ -15080,7 +15086,7 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>246</v>
@@ -15143,7 +15149,7 @@
         <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
@@ -15176,7 +15182,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15195,16 +15201,16 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15266,7 +15272,7 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15306,13 +15312,13 @@
         <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>255</v>
@@ -15321,10 +15327,10 @@
         <v>256</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>78</v>
@@ -15385,13 +15391,13 @@
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>78</v>
@@ -15419,16 +15425,16 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>416</v>
@@ -15494,13 +15500,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15512,7 +15518,7 @@
         <v>419</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15534,7 +15540,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15546,7 +15552,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>422</v>
@@ -15583,7 +15589,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>426</v>
@@ -15613,13 +15619,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15631,7 +15637,7 @@
         <v>429</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>430</v>
@@ -15653,7 +15659,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15665,7 +15671,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>433</v>
@@ -15700,7 +15706,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>436</v>
@@ -15730,13 +15736,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15770,7 +15776,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15782,7 +15788,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>443</v>
@@ -15819,7 +15825,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>444</v>
@@ -15849,13 +15855,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15901,7 +15907,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>452</v>
@@ -15938,7 +15944,7 @@
         <v>78</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X117" t="s" s="2">
         <v>456</v>
@@ -15974,7 +15980,7 @@
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16008,19 +16014,19 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -16087,13 +16093,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16127,7 +16133,7 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -16139,7 +16145,7 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>470</v>
@@ -16204,13 +16210,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16244,16 +16250,16 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I120" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>475</v>
@@ -16323,13 +16329,13 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16446,7 +16452,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16480,7 +16486,7 @@
         <v>79</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>78</v>
@@ -16492,7 +16498,7 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>246</v>
@@ -16555,7 +16561,7 @@
         <v>79</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>78</v>
@@ -16588,7 +16594,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16607,16 +16613,16 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16678,7 +16684,7 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16718,13 +16724,13 @@
         <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>255</v>
@@ -16733,10 +16739,10 @@
         <v>256</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>78</v>
@@ -16797,13 +16803,13 @@
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>78</v>
@@ -16828,10 +16834,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16843,7 +16849,7 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>492</v>
@@ -16903,16 +16909,16 @@
         <v>491</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16943,10 +16949,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17022,16 +17028,16 @@
         <v>495</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -17067,7 +17073,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17164,7 +17170,7 @@
         <v>409</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>410</v>
@@ -17186,7 +17192,7 @@
         <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>78</v>
@@ -17198,7 +17204,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>246</v>
@@ -17261,7 +17267,7 @@
         <v>79</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17294,7 +17300,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17313,16 +17319,16 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17384,7 +17390,7 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17424,13 +17430,13 @@
         <v>78</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>255</v>
@@ -17439,10 +17445,10 @@
         <v>256</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>78</v>
@@ -17503,13 +17509,13 @@
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>78</v>
@@ -17537,16 +17543,16 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>416</v>
@@ -17612,13 +17618,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17630,7 +17636,7 @@
         <v>419</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17652,7 +17658,7 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17664,7 +17670,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>246</v>
@@ -17727,7 +17733,7 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
@@ -17760,7 +17766,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17779,16 +17785,16 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17835,7 +17841,7 @@
         <v>78</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>252</v>
@@ -17850,7 +17856,7 @@
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17884,19 +17890,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>509</v>
@@ -17961,19 +17967,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>513</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -18001,19 +18007,19 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J135" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>515</v>
@@ -18048,7 +18054,7 @@
         <v>78</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>518</v>
@@ -18078,19 +18084,19 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>78</v>
@@ -18118,16 +18124,16 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>522</v>
@@ -18195,13 +18201,13 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18235,7 +18241,7 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18247,7 +18253,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>246</v>
@@ -18310,7 +18316,7 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
@@ -18343,7 +18349,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18362,16 +18368,16 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18418,7 +18424,7 @@
         <v>78</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>252</v>
@@ -18433,7 +18439,7 @@
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18467,19 +18473,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I139" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>531</v>
@@ -18516,7 +18522,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>535</v>
@@ -18546,13 +18552,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18586,16 +18592,16 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>218</v>
@@ -18635,7 +18641,7 @@
         <v>78</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>544</v>
@@ -18665,13 +18671,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18705,19 +18711,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>548</v>
@@ -18784,13 +18790,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18821,22 +18827,22 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>556</v>
@@ -18901,13 +18907,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18941,19 +18947,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>563</v>
@@ -19016,13 +19022,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19056,16 +19062,16 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J144" t="s" s="2">
         <v>568</v>
@@ -19133,13 +19139,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19173,19 +19179,19 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I145" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J145" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>575</v>
@@ -19250,19 +19256,19 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>78</v>
@@ -19287,10 +19293,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19302,7 +19308,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>422</v>
@@ -19339,7 +19345,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>426</v>
@@ -19369,13 +19375,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19387,7 +19393,7 @@
         <v>429</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>430</v>
@@ -19409,7 +19415,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19421,7 +19427,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>433</v>
@@ -19456,7 +19462,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>436</v>
@@ -19486,13 +19492,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19526,7 +19532,7 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19538,7 +19544,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>443</v>
@@ -19575,7 +19581,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>444</v>
@@ -19605,13 +19611,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19657,7 +19663,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>452</v>
@@ -19694,7 +19700,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>456</v>
@@ -19730,7 +19736,7 @@
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19764,19 +19770,19 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>461</v>
@@ -19843,13 +19849,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19883,7 +19889,7 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>78</v>
@@ -19895,7 +19901,7 @@
         <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>470</v>
@@ -19960,13 +19966,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20000,16 +20006,16 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I152" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>475</v>
@@ -20079,13 +20085,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20202,7 +20208,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20236,7 +20242,7 @@
         <v>79</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>78</v>
@@ -20248,7 +20254,7 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>246</v>
@@ -20311,7 +20317,7 @@
         <v>79</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
@@ -20344,7 +20350,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20363,16 +20369,16 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K155" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -20434,7 +20440,7 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20474,13 +20480,13 @@
         <v>78</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>255</v>
@@ -20489,10 +20495,10 @@
         <v>256</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>78</v>
@@ -20553,13 +20559,13 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>78</v>
@@ -20584,10 +20590,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20599,7 +20605,7 @@
         <v>78</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>492</v>
@@ -20659,16 +20665,16 @@
         <v>491</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20699,10 +20705,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20778,16 +20784,16 @@
         <v>495</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20820,10 +20826,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20920,7 +20926,7 @@
         <v>409</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>410</v>
@@ -20942,7 +20948,7 @@
         <v>79</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>78</v>
@@ -20954,7 +20960,7 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>246</v>
@@ -21017,7 +21023,7 @@
         <v>79</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>78</v>
@@ -21050,7 +21056,7 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21069,16 +21075,16 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L161" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21140,7 +21146,7 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21180,13 +21186,13 @@
         <v>78</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>255</v>
@@ -21195,10 +21201,10 @@
         <v>256</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>78</v>
@@ -21259,13 +21265,13 @@
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>78</v>
@@ -21302,7 +21308,7 @@
         <v>78</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>416</v>
@@ -21368,13 +21374,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21386,7 +21392,7 @@
         <v>419</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>78</v>
@@ -21405,10 +21411,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21420,7 +21426,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>422</v>
@@ -21457,7 +21463,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>426</v>
@@ -21487,13 +21493,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21505,7 +21511,7 @@
         <v>429</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>430</v>
@@ -21527,7 +21533,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21539,7 +21545,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>433</v>
@@ -21574,7 +21580,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>436</v>
@@ -21604,13 +21610,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21656,7 +21662,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>443</v>
@@ -21693,7 +21699,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>444</v>
@@ -21723,13 +21729,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21775,7 +21781,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>583</v>
@@ -21812,7 +21818,7 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X167" t="s" s="2">
         <v>456</v>
@@ -21848,7 +21854,7 @@
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21882,19 +21888,19 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>461</v>
@@ -21961,13 +21967,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22001,7 +22007,7 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>78</v>
@@ -22013,7 +22019,7 @@
         <v>78</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>470</v>
@@ -22078,13 +22084,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22115,19 +22121,19 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I170" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>475</v>
@@ -22197,13 +22203,13 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22320,7 +22326,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22354,7 +22360,7 @@
         <v>79</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>78</v>
@@ -22366,7 +22372,7 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>246</v>
@@ -22429,7 +22435,7 @@
         <v>79</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
@@ -22462,7 +22468,7 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22481,16 +22487,16 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22552,7 +22558,7 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22592,13 +22598,13 @@
         <v>78</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>255</v>
@@ -22607,10 +22613,10 @@
         <v>256</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>78</v>
@@ -22671,13 +22677,13 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>78</v>
@@ -22702,10 +22708,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22717,7 +22723,7 @@
         <v>78</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>492</v>
@@ -22777,16 +22783,16 @@
         <v>491</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
@@ -22817,10 +22823,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22896,16 +22902,16 @@
         <v>495</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
